--- a/clients_credentials.xlsx
+++ b/clients_credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BDDRHomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8168337-9598-4774-97A7-F77FA717BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA448FD6-E700-465C-8A39-79CCC2DE2BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6DF96377-3AD4-4FBE-8B50-86D595289EC2}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{6DF96377-3AD4-4FBE-8B50-86D595289EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>enzosanchez123</t>
+  </si>
+  <si>
+    <t>marksantamena123</t>
+  </si>
+  <si>
+    <t>markmena</t>
   </si>
 </sst>
 </file>
@@ -567,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10FA75F-C202-495C-B17D-CA2B1D3F5597}">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,8 +784,12 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>

--- a/clients_credentials.xlsx
+++ b/clients_credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BDDRHomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA448FD6-E700-465C-8A39-79CCC2DE2BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79157A47-48DA-4D8A-8E79-356A56604611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{6DF96377-3AD4-4FBE-8B50-86D595289EC2}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10FA75F-C202-495C-B17D-CA2B1D3F5597}">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
